--- a/resources/Sku/SKU.xlsx
+++ b/resources/Sku/SKU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92089928-EAAF-4FC9-A860-91ACBB741A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5B4B9-A7B2-4525-8C4A-2E65D10753EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>test SKU Local</t>
   </si>
@@ -114,15 +113,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,13 +141,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -477,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,151 +517,191 @@
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>3</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Sku/SKU.xlsx
+++ b/resources/Sku/SKU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5B4B9-A7B2-4525-8C4A-2E65D10753EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF02AE-0D17-42F4-B629-52604D1E335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,10 +94,10 @@
     <t>valueText</t>
   </si>
   <si>
-    <t>test SKU 999</t>
-  </si>
-  <si>
     <t>NoOfSku</t>
+  </si>
+  <si>
+    <t>test SKU 992</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
